--- a/backend/templates/Consolidated Report.xlsx
+++ b/backend/templates/Consolidated Report.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Aritao West</t>
   </si>
   <si>
-    <t xml:space="preserve">A.Casta  neda</t>
+    <t xml:space="preserve">A.Castaneda</t>
   </si>
   <si>
     <t xml:space="preserve">Bagabag I</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Kasibu West</t>
   </si>
   <si>
-    <t xml:space="preserve">Que zon </t>
+    <t xml:space="preserve">Quezon </t>
   </si>
   <si>
     <t xml:space="preserve">Solano   I</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Sta Fe</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa     verde</t>
+    <t xml:space="preserve">Villaverde</t>
   </si>
   <si>
     <t xml:space="preserve">GRAND TOTAL</t>
@@ -317,7 +317,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -456,15 +455,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="87" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -736,8 +735,8 @@
   </sheetPr>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z8" activeCellId="0" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
